--- a/SmartBooks.HumanResource/bin/x86/Debug/Teamleate/AnnualLeaveSummary.xlsx
+++ b/SmartBooks.HumanResource/bin/x86/Debug/Teamleate/AnnualLeaveSummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCodeHR\Myongshin\SmartBooks.HumanResource\bin\x86\Debug\Teamleate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCodeHR\SnK_Dev\SmartBooks.HumanResource\bin\x86\Debug\Teamleate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DB41D1-3DC1-48A4-AF1F-765B5B441D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CB8ADD-ABA6-43E0-9ABA-3126C2E3F7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="4425" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -237,11 +237,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -252,39 +296,50 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -301,61 +356,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38660</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1158989</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>184337</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506FEC18-8476-401B-8386-CCC479672DA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="714376" y="38660"/>
-          <a:ext cx="1054213" cy="593352"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -624,7 +624,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,15 +644,15 @@
         <v>1</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="13" t="str">
         <f>"REMAIN ANNUAL LEAVE ON "&amp; UPPER(TEXT(MONTH(A1),"MMM"))&amp;" "&amp;YEAR(A1)</f>
         <v>REMAIN ANNUAL LEAVE ON JAN 1900</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
@@ -660,13 +660,12 @@
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
@@ -674,13 +673,12 @@
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
@@ -688,92 +686,91 @@
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="G5"/>
     </row>
     <row r="6" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="12" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6"/>
+      <c r="H6" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="15" t="str">
+      <c r="F7" s="14" t="str">
         <f>"Used on "&amp;TEXT(MONTH(A1),"MMM")&amp;"
  "&amp;TEXT(DATE(YEAR(A1),MONTH(A1),1),"dd/MM")&amp;" - " &amp; TEXT(EOMONTH(A1,0),"dd/MM")</f>
         <v>Used on Jan
  01/01 - 31/01</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="18" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
@@ -791,16 +788,11 @@
   <autoFilter ref="A8:J8" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
-  <mergeCells count="6">
+  <mergeCells count="2">
     <mergeCell ref="C1:H3"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>